--- a/medicine/Enfance/Anne-Marie_Cadot-Colin/Anne-Marie_Cadot-Colin.xlsx
+++ b/medicine/Enfance/Anne-Marie_Cadot-Colin/Anne-Marie_Cadot-Colin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Marie Cadot-Colin est une écrivaine française née à Paris le 30 juin 1945. Elle a écrit et publié chez Hachette dix romans pour enfants s'inspirant de ceux du Graal, dont Perceval ou le conte du Graal[1].  Après des études littéraires à la Sorbonne, elle devient professeure à l’École Normale d’institutrices d’Arras. Elle enseigne la langue et la littérature du Moyen Âge à l'université de Bordeaux jusqu'à sa retraite[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Cadot-Colin est une écrivaine française née à Paris le 30 juin 1945. Elle a écrit et publié chez Hachette dix romans pour enfants s'inspirant de ceux du Graal, dont Perceval ou le conte du Graal.  Après des études littéraires à la Sorbonne, elle devient professeure à l’École Normale d’institutrices d’Arras. Elle enseigne la langue et la littérature du Moyen Âge à l'université de Bordeaux jusqu'à sa retraite. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Marie Cadot-Colin a enseigné la langue et la littérature médiévale à l'université de Bordeaux comme maître de conférence et membre de l'association Lire et faire lire[3],[4]. Elle publie notamment dans la revue Perspectives médiévales[5],[6],[3]et participe à des ouvrages[7],[8].Ses recherches l'amènent à se spécialiser dans les romans d'inspiration celtique et tout particulièrement le cycle des romans du Graal[6],[1],[9]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Cadot-Colin a enseigné la langue et la littérature médiévale à l'université de Bordeaux comme maître de conférence et membre de l'association Lire et faire lire,. Elle publie notamment dans la revue Perspectives médiévaleset participe à des ouvrages,.Ses recherches l'amènent à se spécialiser dans les romans d'inspiration celtique et tout particulièrement le cycle des romans du Graal. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voici les livres écrits par Cadot-Colin et leurs sources littéraires respectives[10],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voici les livres écrits par Cadot-Colin et leurs sources littéraires respectives, :
 Anne-Marie Cadot-Colin (d'après l'œuvre de Chrétien de Troyes), Perceval ou le conte du Graal, 2005.
 Anne-Marie Cadot-Colin (d'après l'œuvre de Chrétien de Troyes), Yvain, le chevalier au lion, 2006.
 Anne-Marie Cadot-Colin, La chanson de Roland, Hachette, coll. « Librairie Générale Française », 2015.
